--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4452" windowWidth="14340" xWindow="384" yWindow="84"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NIMonthlyCat_B" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NIMonthlyCat_B" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="55">
   <si>
     <t>TC</t>
   </si>
@@ -179,13 +184,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,63 +240,66 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -300,10 +310,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -338,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +381,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,6 +433,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,7 +505,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -470,13 +514,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +530,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +548,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -514,12 +558,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -550,7 +594,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -569,7 +613,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -581,22 +625,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -624,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -638,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="43.2" r="4" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -652,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -666,7 +710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="6" s="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -680,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="72" r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -695,30 +739,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="79.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="18.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.21875" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="79.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -741,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -758,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -775,7 +819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -793,7 +837,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -811,7 +855,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -829,7 +873,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -847,7 +891,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -865,7 +909,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -883,7 +927,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -902,33 +946,33 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="43.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -969,7 +1013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="32.4" r="2" s="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>52</v>
       </c>
@@ -1004,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" ht="28.8" r="3" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>52</v>
       </c>
@@ -1041,7 +1085,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row customFormat="1" ht="28.8" r="4" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>52</v>
       </c>
@@ -1078,7 +1122,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row customFormat="1" ht="28.8" r="5" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
@@ -1115,7 +1159,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row customFormat="1" ht="28.8" r="6" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
@@ -1152,7 +1196,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row customFormat="1" ht="28.8" r="7" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>52</v>
       </c>
@@ -1189,7 +1233,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row customFormat="1" ht="28.8" r="8" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>52</v>
       </c>
@@ -1226,7 +1270,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row customFormat="1" ht="28.8" r="9" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>52</v>
       </c>
@@ -1263,7 +1307,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row customFormat="1" ht="28.8" r="10" s="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>52</v>
       </c>
@@ -1302,38 +1346,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A10"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="1" max="1" width="52.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
@@ -1377,7 +1421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="34.799999999999997" r="2" s="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>52</v>
       </c>
@@ -1400,7 +1444,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>47</v>
@@ -1417,9 +1461,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Payroll Suite MonthlyCatB201718.xlsx</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>22</t>
@@ -192,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +287,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -625,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -745,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -952,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,19 +1012,19 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>48</v>
@@ -1036,7 +1033,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>44</v>
@@ -1050,19 +1047,19 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>48</v>
@@ -1071,7 +1068,7 @@
         <v>43</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>44</v>
@@ -1087,19 +1084,19 @@
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>48</v>
@@ -1108,7 +1105,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>44</v>
@@ -1124,19 +1121,19 @@
     </row>
     <row r="5" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>48</v>
@@ -1145,7 +1142,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>44</v>
@@ -1161,19 +1158,19 @@
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>48</v>
@@ -1182,7 +1179,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>44</v>
@@ -1198,19 +1195,19 @@
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>48</v>
@@ -1219,7 +1216,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>44</v>
@@ -1235,19 +1232,19 @@
     </row>
     <row r="8" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>48</v>
@@ -1256,7 +1253,7 @@
         <v>43</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>44</v>
@@ -1272,19 +1269,19 @@
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>48</v>
@@ -1293,7 +1290,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>44</v>
@@ -1309,19 +1306,19 @@
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>48</v>
@@ -1330,7 +1327,7 @@
         <v>43</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>44</v>
@@ -1346,8 +1343,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1355,10 +1352,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1423,19 +1420,19 @@
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>48</v>
@@ -1444,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>47</v>
@@ -1453,7 +1450,7 @@
         <v>45</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>6</v>
@@ -1461,8 +1458,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -78,33 +78,6 @@
     <t>PayrollFrequency</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 108</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 109</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -177,13 +150,40 @@
     <t>April-2017</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 556</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 557</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 558</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 559</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 560</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 561</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 562</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 563</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 564</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NIMCB EMPLOYER</t>
+  </si>
+  <si>
+    <t>NIMCB_Payroll</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -250,7 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -264,9 +263,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -277,12 +273,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -653,7 +647,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -665,26 +659,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>27</v>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -707,8 +701,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -745,16 +739,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="79.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -766,7 +760,7 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -783,51 +777,51 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12">
         <v>8160.48</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="A3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12">
         <v>8160.6</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="A4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12">
         <v>8161.2</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -835,17 +829,17 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12">
         <v>8161.32</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -853,17 +847,17 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>45000.480000000003</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -871,17 +865,17 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="A7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12">
         <v>45000.6</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -889,17 +883,17 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="A8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12">
         <v>45003.48</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -907,17 +901,17 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="A9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12">
         <v>45003.6</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
@@ -925,17 +919,17 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="15">
+      <c r="A10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12">
         <v>66000</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -952,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,385 +963,384 @@
     <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="H2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="K2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="G3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="F4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="I4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A10" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2:A10" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1355,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,92 +1367,92 @@
     <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="H2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="4455" windowWidth="14340" xWindow="390" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMonthlyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIMonthly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIMonthlyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIMonthly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -190,6 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,54 +238,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -301,10 +302,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -339,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +497,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -505,13 +506,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -521,7 +522,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -530,7 +531,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -539,7 +540,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -549,12 +550,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -585,7 +586,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -604,7 +605,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -616,7 +617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -625,10 +626,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -673,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -701,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -715,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -730,13 +731,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -745,12 +746,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="79.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="79.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,13 +938,13 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -952,18 +953,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="32.450000000000003" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
@@ -1076,7 +1077,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -1113,7 +1114,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>52</v>
       </c>
@@ -1150,7 +1151,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="6" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
@@ -1187,7 +1188,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="7" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
@@ -1224,7 +1225,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="8" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>52</v>
       </c>
@@ -1261,7 +1262,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="9" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>52</v>
       </c>
@@ -1298,7 +1299,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="10" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -1337,15 +1338,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A10" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1354,20 +1355,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.9" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -1451,9 +1452,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite MonthlyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
